--- a/sofaplayer/Premier_League/Arsenal_stats.xlsx
+++ b/sofaplayer/Premier_League/Arsenal_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>804508</v>
       </c>
       <c r="E2" t="n">
-        <v>6.504347826087</v>
+        <v>6.4875</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>1498</v>
+        <v>1588</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>7.9996</v>
       </c>
       <c r="L2" t="n">
-        <v>187.25</v>
+        <v>198.5</v>
       </c>
       <c r="M2" t="n">
         <v>37</v>
@@ -1101,34 +1101,34 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.91140946</v>
+        <v>1.32385246</v>
       </c>
       <c r="AB2" t="n">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="AC2" t="n">
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AF2" t="n">
-        <v>62.295081967213</v>
+        <v>61</v>
       </c>
       <c r="AG2" t="n">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AJ2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="n">
         <v>1</v>
@@ -1152,13 +1152,13 @@
         <v>11</v>
       </c>
       <c r="AR2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AS2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -1176,40 +1176,40 @@
         <v>5</v>
       </c>
       <c r="AZ2" t="n">
+        <v>18.518518518519</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>31.521739130435</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>30.882352941176</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>184</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI2" t="n">
         <v>20</v>
       </c>
-      <c r="BA2" t="n">
-        <v>48</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>31.168831168831</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>28</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>32.183908045977</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>20</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>29.850746268657</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>165</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>20</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>19</v>
-      </c>
       <c r="BJ2" t="n">
         <v>2</v>
       </c>
       <c r="BK2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL2" t="n">
         <v>0</v>
@@ -1221,22 +1221,22 @@
         <v>4</v>
       </c>
       <c r="BO2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>149.6</v>
+        <v>155.7</v>
       </c>
       <c r="BR2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS2" t="n">
         <v>8</v>
       </c>
       <c r="BT2" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>18</v>
       </c>
       <c r="CC2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CD2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK2" t="n">
         <v>2</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CT2" t="n">
         <v>6</v>
       </c>
       <c r="CU2" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="CV2" t="n">
         <v>47</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="DG2" t="n">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>934235</v>
       </c>
       <c r="E3" t="n">
-        <v>7.2857142857143</v>
+        <v>7.2454545454545</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>1549</v>
+        <v>1569</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -1412,7 +1412,7 @@
         <v>5.5823</v>
       </c>
       <c r="L3" t="n">
-        <v>387.25</v>
+        <v>392.25</v>
       </c>
       <c r="M3" t="n">
         <v>50</v>
@@ -1457,10 +1457,10 @@
         <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.11113137</v>
+        <v>5.11216949</v>
       </c>
       <c r="AB3" t="n">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
@@ -1469,22 +1469,22 @@
         <v>44</v>
       </c>
       <c r="AE3" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF3" t="n">
-        <v>79.368029739777</v>
+        <v>79.297597042514</v>
       </c>
       <c r="AG3" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AH3" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AJ3" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK3" t="n">
         <v>10</v>
@@ -1514,7 +1514,7 @@
         <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU3" t="n">
         <v>17</v>
@@ -1535,28 +1535,28 @@
         <v>52.777777777778</v>
       </c>
       <c r="BA3" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BB3" t="n">
-        <v>55.813953488372</v>
+        <v>55.504587155963</v>
       </c>
       <c r="BC3" t="n">
         <v>105</v>
       </c>
       <c r="BD3" t="n">
-        <v>57.065217391304</v>
+        <v>56.756756756757</v>
       </c>
       <c r="BE3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BF3" t="n">
-        <v>48.387096774194</v>
+        <v>48.484848484848</v>
       </c>
       <c r="BG3" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="BH3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI3" t="n">
         <v>41</v>
@@ -1577,22 +1577,22 @@
         <v>5</v>
       </c>
       <c r="BO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>153</v>
+        <v>159.4</v>
       </c>
       <c r="BR3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS3" t="n">
         <v>7</v>
       </c>
       <c r="BT3" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK3" t="n">
         <v>4</v>
@@ -1673,10 +1673,10 @@
         <v>98</v>
       </c>
       <c r="CU3" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="CV3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="DG3" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>922573</v>
       </c>
       <c r="E5" t="n">
-        <v>6.6789473684211</v>
+        <v>6.68</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2121,22 +2121,22 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.7736</v>
+        <v>2.848</v>
       </c>
       <c r="L5" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>4.7619047619048</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7693436299999999</v>
+        <v>0.76954573</v>
       </c>
       <c r="AB5" t="n">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -2181,22 +2181,22 @@
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="n">
-        <v>69.78417266187</v>
+        <v>69.230769230769</v>
       </c>
       <c r="AG5" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK5" t="n">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>5</v>
       </c>
       <c r="AN5" t="n">
-        <v>27.777777777778</v>
+        <v>26.315789473684</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>4</v>
       </c>
       <c r="AT5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
         <v>6</v>
@@ -2247,31 +2247,31 @@
         <v>62.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BB5" t="n">
-        <v>48.717948717949</v>
+        <v>50</v>
       </c>
       <c r="BC5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD5" t="n">
-        <v>51.612903225806</v>
+        <v>52.380952380952</v>
       </c>
       <c r="BE5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF5" t="n">
-        <v>37.5</v>
+        <v>41.176470588235</v>
       </c>
       <c r="BG5" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BH5" t="n">
         <v>6</v>
       </c>
       <c r="BI5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ5" t="n">
         <v>2</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>126.9</v>
+        <v>133.6</v>
       </c>
       <c r="BR5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS5" t="n">
         <v>3</v>
       </c>
       <c r="BT5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CA5" t="n">
         <v>2</v>
@@ -2382,7 +2382,7 @@
         <v>24</v>
       </c>
       <c r="CT5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CU5" t="n">
         <v>40</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="DG5" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>864921</v>
       </c>
       <c r="E7" t="n">
-        <v>6.995</v>
+        <v>6.9714285714286</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>1087</v>
+        <v>1132</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -2836,7 +2836,7 @@
         <v>2.5582</v>
       </c>
       <c r="L7" t="n">
-        <v>271.75</v>
+        <v>283</v>
       </c>
       <c r="M7" t="n">
         <v>33</v>
@@ -2881,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.68277573</v>
+        <v>1.69888963</v>
       </c>
       <c r="AB7" t="n">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="AC7" t="n">
         <v>3</v>
@@ -2893,22 +2893,22 @@
         <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AF7" t="n">
-        <v>85.82677165354301</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="AG7" t="n">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AH7" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI7" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ7" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AK7" t="n">
         <v>7</v>
@@ -2923,7 +2923,7 @@
         <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
@@ -2938,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="AT7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
         <v>14</v>
@@ -2959,31 +2959,31 @@
         <v>60.606060606061</v>
       </c>
       <c r="BA7" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BB7" t="n">
-        <v>53.153153153153</v>
+        <v>52.586206896552</v>
       </c>
       <c r="BC7" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BD7" t="n">
-        <v>58.695652173913</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BE7" t="n">
         <v>5</v>
       </c>
       <c r="BF7" t="n">
-        <v>26.315789473684</v>
+        <v>25</v>
       </c>
       <c r="BG7" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BH7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BJ7" t="n">
         <v>1</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>139.9</v>
+        <v>146.4</v>
       </c>
       <c r="BR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS7" t="n">
         <v>6</v>
       </c>
       <c r="BT7" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="CB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC7" t="n">
         <v>17</v>
@@ -3097,10 +3097,10 @@
         <v>10</v>
       </c>
       <c r="CU7" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CV7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="DG7" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>135666</v>
       </c>
       <c r="E8" t="n">
-        <v>6.9952380952381</v>
+        <v>6.9727272727273</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>1426</v>
+        <v>1507</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -3189,13 +3189,13 @@
         <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2388</v>
+        <v>4.4084</v>
       </c>
       <c r="L8" t="n">
-        <v>285.2</v>
+        <v>301.4</v>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N8" t="n">
         <v>10</v>
@@ -3204,7 +3204,7 @@
         <v>6</v>
       </c>
       <c r="P8" t="n">
-        <v>14.285714285714</v>
+        <v>13.513513513514</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3237,67 +3237,67 @@
         <v>5</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.38312139</v>
+        <v>2.49339739</v>
       </c>
       <c r="AB8" t="n">
-        <v>823</v>
+        <v>884</v>
       </c>
       <c r="AC8" t="n">
         <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="AF8" t="n">
-        <v>75.763358778626</v>
+        <v>76.00700525393999</v>
       </c>
       <c r="AG8" t="n">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="AH8" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AI8" t="n">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="AJ8" t="n">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="AK8" t="n">
         <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>46.428571428571</v>
+        <v>45.614035087719</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>21.56862745098</v>
+        <v>22.641509433962</v>
       </c>
       <c r="AO8" t="n">
         <v>7</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>6</v>
       </c>
       <c r="AR8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS8" t="n">
         <v>14</v>
       </c>
       <c r="AT8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -3309,22 +3309,22 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ8" t="n">
-        <v>40.625</v>
+        <v>41.176470588235</v>
       </c>
       <c r="BA8" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>46.099290780142</v>
+      </c>
+      <c r="BC8" t="n">
         <v>61</v>
       </c>
-      <c r="BB8" t="n">
-        <v>45.185185185185</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>57</v>
-      </c>
       <c r="BD8" t="n">
-        <v>46.341463414634</v>
+        <v>47.286821705426</v>
       </c>
       <c r="BE8" t="n">
         <v>4</v>
@@ -3333,13 +3333,13 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG8" t="n">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="BH8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BJ8" t="n">
         <v>4</v>
@@ -3357,22 +3357,22 @@
         <v>2</v>
       </c>
       <c r="BO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>146.9</v>
+        <v>153.4</v>
       </c>
       <c r="BR8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS8" t="n">
         <v>10</v>
       </c>
       <c r="BT8" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CA8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB8" t="n">
         <v>24</v>
       </c>
       <c r="CC8" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="CD8" t="n">
         <v>31</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK8" t="n">
         <v>3</v>
@@ -3444,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CS8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CT8" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CU8" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CV8" t="n">
         <v>8</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="DA8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DB8" t="n">
-        <v>64.705882352941</v>
+        <v>68.421052631579</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="DG8" t="n">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>547410</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0277777777778</v>
+        <v>7.0052631578947</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
         <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>1020</v>
+        <v>1065</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -3545,13 +3545,13 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9668</v>
+        <v>1.0108</v>
       </c>
       <c r="L9" t="n">
-        <v>1020</v>
+        <v>1065</v>
       </c>
       <c r="M9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
         <v>7</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5.2631578947368</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>4</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.84541733</v>
+        <v>2.91424003</v>
       </c>
       <c r="AB9" t="n">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="AC9" t="n">
         <v>4</v>
@@ -3605,46 +3605,46 @@
         <v>30</v>
       </c>
       <c r="AE9" t="n">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="AF9" t="n">
-        <v>85.00823723229</v>
+        <v>84.98402555910501</v>
       </c>
       <c r="AG9" t="n">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="AH9" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AI9" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AJ9" t="n">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL9" t="n">
-        <v>55.555555555556</v>
+        <v>55.357142857143</v>
       </c>
       <c r="AM9" t="n">
         <v>5</v>
       </c>
       <c r="AN9" t="n">
-        <v>26.315789473684</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -3668,19 +3668,19 @@
         <v>9</v>
       </c>
       <c r="AZ9" t="n">
-        <v>47.368421052632</v>
+        <v>45</v>
       </c>
       <c r="BA9" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>44.871794871795</v>
+      </c>
+      <c r="BC9" t="n">
         <v>33</v>
       </c>
-      <c r="BB9" t="n">
-        <v>44</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>31</v>
-      </c>
       <c r="BD9" t="n">
-        <v>45.588235294118</v>
+        <v>46.478873239437</v>
       </c>
       <c r="BE9" t="n">
         <v>2</v>
@@ -3689,13 +3689,13 @@
         <v>28.571428571429</v>
       </c>
       <c r="BG9" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="BH9" t="n">
         <v>7</v>
       </c>
       <c r="BI9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ9" t="n">
         <v>2</v>
@@ -3713,28 +3713,28 @@
         <v>2</v>
       </c>
       <c r="BO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>126.5</v>
+        <v>133.1</v>
       </c>
       <c r="BR9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS9" t="n">
         <v>5</v>
       </c>
       <c r="BT9" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA9" t="n">
         <v>11</v>
@@ -3755,10 +3755,10 @@
         <v>10</v>
       </c>
       <c r="CC9" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="CD9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK9" t="n">
         <v>3</v>
@@ -3803,13 +3803,13 @@
         <v>29</v>
       </c>
       <c r="CS9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CT9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CU9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CV9" t="n">
         <v>5</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="DA9" t="n">
         <v>6</v>
       </c>
       <c r="DB9" t="n">
-        <v>37.5</v>
+        <v>35.294117647059</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DG9" t="n">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>856714</v>
       </c>
       <c r="E10" t="n">
-        <v>7.5291666666667</v>
+        <v>7.516</v>
       </c>
       <c r="F10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" t="n">
         <v>24</v>
       </c>
-      <c r="G10" t="n">
-        <v>23</v>
-      </c>
       <c r="H10" t="n">
-        <v>2059</v>
+        <v>2149</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -3904,7 +3904,7 @@
         <v>2.7445</v>
       </c>
       <c r="L10" t="n">
-        <v>514.75</v>
+        <v>537.25</v>
       </c>
       <c r="M10" t="n">
         <v>33</v>
@@ -3949,64 +3949,64 @@
         <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.0585479</v>
+        <v>5.1689499</v>
       </c>
       <c r="AB10" t="n">
-        <v>1862</v>
+        <v>1946</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AE10" t="n">
-        <v>1271</v>
+        <v>1335</v>
       </c>
       <c r="AF10" t="n">
-        <v>88.75698324022299</v>
+        <v>88.940706195869</v>
       </c>
       <c r="AG10" t="n">
-        <v>1432</v>
+        <v>1501</v>
       </c>
       <c r="AH10" t="n">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="AI10" t="n">
-        <v>715</v>
+        <v>754</v>
       </c>
       <c r="AJ10" t="n">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="AK10" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
-        <v>48.717948717949</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN10" t="n">
-        <v>29.166666666667</v>
+        <v>30.081300813008</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ10" t="n">
         <v>9</v>
       </c>
       <c r="AR10" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AS10" t="n">
         <v>11</v>
       </c>
       <c r="AT10" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -4021,37 +4021,37 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ10" t="n">
         <v>50</v>
       </c>
       <c r="BA10" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BB10" t="n">
-        <v>56.462585034014</v>
+        <v>57.516339869281</v>
       </c>
       <c r="BC10" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BD10" t="n">
-        <v>51.428571428571</v>
+        <v>52.727272727273</v>
       </c>
       <c r="BE10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BF10" t="n">
-        <v>69.04761904761899</v>
+        <v>69.767441860465</v>
       </c>
       <c r="BG10" t="n">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="BH10" t="n">
         <v>18</v>
       </c>
       <c r="BI10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ10" t="n">
         <v>1</v>
@@ -4069,22 +4069,22 @@
         <v>8</v>
       </c>
       <c r="BO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>180.7</v>
+        <v>187.9</v>
       </c>
       <c r="BR10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS10" t="n">
         <v>7</v>
       </c>
       <c r="BT10" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="CC10" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CD10" t="n">
         <v>50</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK10" t="n">
         <v>5</v>
@@ -4156,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="CS10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CT10" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="CU10" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CV10" t="n">
         <v>13</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="DA10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="DB10" t="n">
-        <v>54.761904761905</v>
+        <v>56.818181818182</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="DG10" t="n">
-        <v>836</v>
+        <v>877</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,40 +4239,40 @@
         <v>966547</v>
       </c>
       <c r="E11" t="n">
-        <v>6.825</v>
+        <v>6.8882352941176</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>711</v>
+        <v>781</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6359</v>
+        <v>0.8299</v>
       </c>
       <c r="L11" t="n">
-        <v>711</v>
+        <v>390.5</v>
       </c>
       <c r="M11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>7.6923076923077</v>
+        <v>13.333333333333</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -4284,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.88293604</v>
+        <v>1.93669474</v>
       </c>
       <c r="AB11" t="n">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="AC11" t="n">
         <v>4</v>
@@ -4317,49 +4317,49 @@
         <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="AF11" t="n">
-        <v>74.04255319148901</v>
+        <v>73.35907335907299</v>
       </c>
       <c r="AG11" t="n">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="AH11" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="n">
         <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>61.538461538462</v>
+        <v>53.333333333333</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>20.37037037037</v>
+        <v>20.338983050847</v>
       </c>
       <c r="AO11" t="n">
         <v>4</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
         <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -4383,31 +4383,31 @@
         <v>51.219512195122</v>
       </c>
       <c r="BA11" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>45.299145299145</v>
+      </c>
+      <c r="BC11" t="n">
         <v>45</v>
       </c>
-      <c r="BB11" t="n">
-        <v>42.452830188679</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>39</v>
-      </c>
       <c r="BD11" t="n">
-        <v>41.935483870968</v>
+        <v>44.117647058824</v>
       </c>
       <c r="BE11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF11" t="n">
-        <v>46.153846153846</v>
+        <v>53.333333333333</v>
       </c>
       <c r="BG11" t="n">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="BH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ11" t="n">
         <v>1</v>
@@ -4431,22 +4431,22 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>109.2</v>
+        <v>117.1</v>
       </c>
       <c r="BR11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT11" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CA11" t="n">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>11</v>
       </c>
       <c r="CC11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CD11" t="n">
         <v>5</v>
@@ -4518,10 +4518,10 @@
         <v>41</v>
       </c>
       <c r="CT11" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="CU11" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="CV11" t="n">
         <v>7</v>
@@ -4536,28 +4536,28 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DA11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="DB11" t="n">
+        <v>53.333333333333</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF11" t="n">
         <v>50</v>
       </c>
-      <c r="DC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF11" t="n">
-        <v>47</v>
-      </c>
       <c r="DG11" t="n">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>966837</v>
       </c>
       <c r="E13" t="n">
-        <v>7.112</v>
+        <v>7.1038461538462</v>
       </c>
       <c r="F13" t="n">
+        <v>26</v>
+      </c>
+      <c r="G13" t="n">
         <v>25</v>
       </c>
-      <c r="G13" t="n">
-        <v>24</v>
-      </c>
       <c r="H13" t="n">
-        <v>2090</v>
+        <v>2180</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -4972,7 +4972,7 @@
         <v>2.571</v>
       </c>
       <c r="L13" t="n">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="M13" t="n">
         <v>22</v>
@@ -5017,10 +5017,10 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.50899057</v>
+        <v>1.80751757</v>
       </c>
       <c r="AB13" t="n">
-        <v>1702</v>
+        <v>1749</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
@@ -5029,28 +5029,28 @@
         <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>1274</v>
+        <v>1309</v>
       </c>
       <c r="AF13" t="n">
-        <v>88.65692414753001</v>
+        <v>88.80597014925399</v>
       </c>
       <c r="AG13" t="n">
-        <v>1437</v>
+        <v>1474</v>
       </c>
       <c r="AH13" t="n">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="AI13" t="n">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="AJ13" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="AK13" t="n">
         <v>43</v>
       </c>
       <c r="AL13" t="n">
-        <v>50.588235294118</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
         <v>2</v>
@@ -5062,19 +5062,19 @@
         <v>31</v>
       </c>
       <c r="AP13" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AS13" t="n">
         <v>15</v>
       </c>
       <c r="AT13" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AU13" t="n">
         <v>6</v>
@@ -5095,25 +5095,25 @@
         <v>40</v>
       </c>
       <c r="BA13" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BB13" t="n">
-        <v>57.396449704142</v>
+        <v>57.558139534884</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BD13" t="n">
-        <v>51.515151515152</v>
+        <v>51.485148514851</v>
       </c>
       <c r="BE13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BF13" t="n">
-        <v>65.71428571428601</v>
+        <v>66.19718309859201</v>
       </c>
       <c r="BG13" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BH13" t="n">
         <v>23</v>
@@ -5137,22 +5137,22 @@
         <v>10</v>
       </c>
       <c r="BO13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>177.8</v>
+        <v>184.7</v>
       </c>
       <c r="BR13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BS13" t="n">
         <v>6</v>
       </c>
       <c r="BT13" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5176,13 +5176,13 @@
         <v>6</v>
       </c>
       <c r="CB13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CC13" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK13" t="n">
         <v>4</v>
@@ -5233,7 +5233,7 @@
         <v>8</v>
       </c>
       <c r="CU13" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CV13" t="n">
         <v>24</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="DA13" t="n">
         <v>23</v>
       </c>
       <c r="DB13" t="n">
-        <v>54.761904761905</v>
+        <v>53.488372093023</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="DG13" t="n">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>869792</v>
       </c>
       <c r="E16" t="n">
-        <v>7.3</v>
+        <v>7.305</v>
       </c>
       <c r="F16" t="n">
+        <v>20</v>
+      </c>
+      <c r="G16" t="n">
         <v>19</v>
       </c>
-      <c r="G16" t="n">
-        <v>18</v>
-      </c>
       <c r="H16" t="n">
-        <v>1626</v>
+        <v>1716</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
@@ -6037,13 +6037,13 @@
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>1.7046</v>
+        <v>1.8228</v>
       </c>
       <c r="L16" t="n">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N16" t="n">
         <v>4</v>
@@ -6052,7 +6052,7 @@
         <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>20</v>
+        <v>18.75</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -6085,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.91569076</v>
+        <v>0.94905936</v>
       </c>
       <c r="AB16" t="n">
-        <v>1328</v>
+        <v>1409</v>
       </c>
       <c r="AC16" t="n">
         <v>3</v>
@@ -6097,55 +6097,55 @@
         <v>4</v>
       </c>
       <c r="AE16" t="n">
-        <v>977</v>
+        <v>1031</v>
       </c>
       <c r="AF16" t="n">
-        <v>89.387008234218</v>
+        <v>89.574283231972</v>
       </c>
       <c r="AG16" t="n">
-        <v>1093</v>
+        <v>1151</v>
       </c>
       <c r="AH16" t="n">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="AI16" t="n">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="AJ16" t="n">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
-        <v>43.617021276596</v>
+        <v>44.897959183673</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AS16" t="n">
         <v>4</v>
       </c>
       <c r="AT16" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AU16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV16" t="n">
         <v>2</v>
@@ -6163,37 +6163,37 @@
         <v>50</v>
       </c>
       <c r="BA16" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="BB16" t="n">
-        <v>65.986394557823</v>
+        <v>66.265060240964</v>
       </c>
       <c r="BC16" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="BD16" t="n">
-        <v>73.07692307692299</v>
+        <v>71.666666666667</v>
       </c>
       <c r="BE16" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="BF16" t="n">
-        <v>62.105263157895</v>
+        <v>63.207547169811</v>
       </c>
       <c r="BG16" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="BH16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
@@ -6205,22 +6205,22 @@
         <v>11</v>
       </c>
       <c r="BO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>138.7</v>
+        <v>146.1</v>
       </c>
       <c r="BR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS16" t="n">
         <v>5</v>
       </c>
       <c r="BT16" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6238,19 +6238,19 @@
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CA16" t="n">
         <v>2</v>
       </c>
       <c r="CB16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC16" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CD16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CK16" t="n">
         <v>4</v>
@@ -6298,13 +6298,13 @@
         <v>2</v>
       </c>
       <c r="CT16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CU16" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="CV16" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="DA16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DB16" t="n">
-        <v>47.368421052632</v>
+        <v>43.478260869565</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>619</v>
+        <v>657</v>
       </c>
       <c r="DG16" t="n">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="DH16" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="DI16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="DJ16" t="n">
         <v>2145611</v>
@@ -6731,16 +6731,16 @@
         <v>1002837</v>
       </c>
       <c r="E18" t="n">
-        <v>6.84</v>
+        <v>6.86875</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>1047</v>
+        <v>1128</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6792,193 +6792,193 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.75660209</v>
+        <v>0.91068709</v>
       </c>
       <c r="AB18" t="n">
-        <v>788</v>
+        <v>849</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="AF18" t="n">
-        <v>89.156626506024</v>
+        <v>89.354838709677</v>
       </c>
       <c r="AG18" t="n">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="AH18" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AI18" t="n">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="AJ18" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
-        <v>36.95652173913</v>
+        <v>38.775510204082</v>
       </c>
       <c r="AM18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.181818181818</v>
+        <v>16.666666666667</v>
       </c>
       <c r="AO18" t="n">
         <v>14</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR18" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AS18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>54</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>59</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>56.730769230769</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>34</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>58.620689655172</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>25</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>54.347826086957</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>108</v>
+      </c>
+      <c r="BH18" t="n">
         <v>10</v>
       </c>
-      <c r="AT18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>52</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>54.736842105263</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>29</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>56.862745098039</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>23</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>52.272727272727</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>98</v>
-      </c>
-      <c r="BH18" t="n">
+      <c r="BI18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>16</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>66</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
         <v>9</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>11</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>15</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>63</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>16</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>8</v>
       </c>
       <c r="CK18" t="n">
         <v>3</v>
@@ -7002,16 +7002,16 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CS18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT18" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="CU18" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CV18" t="n">
         <v>21</v>
@@ -7026,13 +7026,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="DA18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DB18" t="n">
-        <v>54.545454545455</v>
+        <v>56</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="DG18" t="n">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="DH18" t="n">
         <v>4</v>
@@ -7085,16 +7085,16 @@
         <v>957602</v>
       </c>
       <c r="E19" t="n">
-        <v>6.8555555555556</v>
+        <v>6.8473684210526</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
         <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -7106,7 +7106,7 @@
         <v>2.748</v>
       </c>
       <c r="L19" t="n">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="M19" t="n">
         <v>24</v>
@@ -7151,10 +7151,10 @@
         <v>2</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.38029651</v>
+        <v>0.38354252</v>
       </c>
       <c r="AB19" t="n">
-        <v>919</v>
+        <v>932</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7163,22 +7163,22 @@
         <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AF19" t="n">
-        <v>85.494880546075</v>
+        <v>85.641891891892</v>
       </c>
       <c r="AG19" t="n">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="AH19" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AI19" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ19" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -7208,7 +7208,7 @@
         <v>7</v>
       </c>
       <c r="AT19" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU19" t="n">
         <v>7</v>
@@ -7232,13 +7232,13 @@
         <v>84</v>
       </c>
       <c r="BB19" t="n">
-        <v>56.375838926174</v>
+        <v>56</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>55.434782608696</v>
+        <v>54.838709677419</v>
       </c>
       <c r="BE19" t="n">
         <v>33</v>
@@ -7247,7 +7247,7 @@
         <v>57.894736842105</v>
       </c>
       <c r="BG19" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BH19" t="n">
         <v>25</v>
@@ -7277,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>123.4</v>
+        <v>130.1</v>
       </c>
       <c r="BR19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS19" t="n">
         <v>3</v>
@@ -7310,7 +7310,7 @@
         <v>7</v>
       </c>
       <c r="CB19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC19" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         <v>21</v>
       </c>
       <c r="CU19" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CV19" t="n">
         <v>24</v>
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="DG19" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7441,16 +7441,16 @@
         <v>958959</v>
       </c>
       <c r="E20" t="n">
-        <v>6.9416666666667</v>
+        <v>6.932</v>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" t="n">
-        <v>2002</v>
+        <v>2092</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -7462,7 +7462,7 @@
         <v>4.3071</v>
       </c>
       <c r="L20" t="n">
-        <v>1001</v>
+        <v>1046</v>
       </c>
       <c r="M20" t="n">
         <v>23</v>
@@ -7507,64 +7507,64 @@
         <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.18865642</v>
+        <v>1.28581532</v>
       </c>
       <c r="AB20" t="n">
-        <v>1353</v>
+        <v>1410</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>798</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>85.530546623794</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>933</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>316</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>482</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>295</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41.860465116279</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>12.19512195122</v>
+      </c>
+      <c r="AO20" t="n">
         <v>20</v>
       </c>
-      <c r="AE20" t="n">
-        <v>769</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>85.63474387527801</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>898</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>309</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>460</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>282</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>38.461538461538</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>7.8947368421053</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>19</v>
-      </c>
       <c r="AP20" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ20" t="n">
         <v>5</v>
       </c>
       <c r="AR20" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AS20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT20" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AU20" t="n">
         <v>3</v>
@@ -7585,16 +7585,16 @@
         <v>42.307692307692</v>
       </c>
       <c r="BA20" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BB20" t="n">
-        <v>57.746478873239</v>
+        <v>57.272727272727</v>
       </c>
       <c r="BC20" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BD20" t="n">
-        <v>55</v>
+        <v>54.491017964072</v>
       </c>
       <c r="BE20" t="n">
         <v>35</v>
@@ -7603,13 +7603,13 @@
         <v>66.037735849057</v>
       </c>
       <c r="BG20" t="n">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="BH20" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BI20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -7627,22 +7627,22 @@
         <v>10</v>
       </c>
       <c r="BO20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>166.6</v>
+        <v>173.3</v>
       </c>
       <c r="BR20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS20" t="n">
         <v>5</v>
       </c>
       <c r="BT20" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7666,13 +7666,13 @@
         <v>1</v>
       </c>
       <c r="CB20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CC20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CD20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK20" t="n">
         <v>5</v>
@@ -7714,16 +7714,16 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CS20" t="n">
         <v>26</v>
       </c>
       <c r="CT20" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CU20" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="CV20" t="n">
         <v>18</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="DA20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DB20" t="n">
-        <v>57.407407407407</v>
+        <v>58.181818181818</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,10 +7756,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="DG20" t="n">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -8153,16 +8153,16 @@
         <v>1144630</v>
       </c>
       <c r="E22" t="n">
-        <v>6.85</v>
+        <v>6.8666666666667</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>439</v>
+        <v>529</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8217,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.43655193</v>
+        <v>0.44628152</v>
       </c>
       <c r="AB22" t="n">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8229,28 +8229,28 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="AF22" t="n">
-        <v>91.25</v>
+        <v>91.553133514986</v>
       </c>
       <c r="AG22" t="n">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="AH22" t="n">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="AI22" t="n">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="AJ22" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>36.363636363636</v>
+        <v>42.857142857143</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8262,220 +8262,220 @@
         <v>6</v>
       </c>
       <c r="AP22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>54.166666666667</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>72.727272727273</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>38.461538461538</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>37</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>31</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
         <v>11</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="CD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>22</v>
+      </c>
+      <c r="CV22" t="n">
         <v>16</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>54.054054054054</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>81.25</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>33</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO22" t="n">
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>14</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>8</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>235</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>132</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI22" t="n">
         <v>4</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>8</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>28</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>17</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>14</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>11</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>7</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>63.636363636364</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>210</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>110</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>2</v>
       </c>
       <c r="DJ22" t="n">
         <v>2164659</v>
@@ -8863,16 +8863,16 @@
         <v>581310</v>
       </c>
       <c r="E24" t="n">
-        <v>6.84</v>
+        <v>6.8615384615385</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H24" t="n">
-        <v>2250</v>
+        <v>2340</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.08424805</v>
+        <v>0.08667445</v>
       </c>
       <c r="AB24" t="n">
-        <v>952</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8939,28 +8939,28 @@
         <v>3</v>
       </c>
       <c r="AE24" t="n">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="AF24" t="n">
-        <v>67.671232876712</v>
+        <v>67.885117493473</v>
       </c>
       <c r="AG24" t="n">
-        <v>730</v>
+        <v>766</v>
       </c>
       <c r="AH24" t="n">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="AI24" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AJ24" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="AL24" t="n">
-        <v>33.903133903134</v>
+        <v>35.63829787234</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8978,19 +8978,19 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>100</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>100</v>
@@ -9017,13 +9017,13 @@
         <v>100</v>
       </c>
       <c r="BE24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF24" t="n">
         <v>100</v>
       </c>
       <c r="BG24" t="n">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
@@ -9041,28 +9041,28 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BN24" t="n">
         <v>13</v>
       </c>
       <c r="BO24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>171</v>
+        <v>178.4</v>
       </c>
       <c r="BR24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9089,10 +9089,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="CD24" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9104,13 +9104,13 @@
         <v>0</v>
       </c>
       <c r="CH24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CI24" t="n">
         <v>7</v>
       </c>
       <c r="CJ24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK24" t="n">
         <v>5</v>
@@ -9119,13 +9119,13 @@
         <v>4</v>
       </c>
       <c r="CM24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CN24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="DA24" t="n">
         <v>1</v>
@@ -9176,13 +9176,13 @@
         <v>6</v>
       </c>
       <c r="DF24" t="n">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="DG24" t="n">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="DH24" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>-2.6218</v>
+        <v>-1.7544</v>
       </c>
     </row>
   </sheetData>
